--- a/TablicaStanowDoMinimalizacji.xlsx
+++ b/TablicaStanowDoMinimalizacji.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
   <si>
     <t xml:space="preserve">STANY \ ARGUMENTY</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">D1</t>
+    <t xml:space="preserve">D0</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -50,13 +50,22 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -108,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">000</t>
@@ -890,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -956,7 +968,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -981,20 +993,20 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1019,17 +1031,17 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1054,11 +1066,19 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1082,11 +1102,19 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1110,12 +1138,22 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1138,11 +1176,19 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -28963,7 +29009,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
@@ -28985,31 +29031,31 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O1" s="7" t="str">
         <f aca="false">CONCATENATE($C$2,P$1)</f>
@@ -29040,7 +29086,7 @@
         <v>W1</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
@@ -29064,7 +29110,7 @@
         <v>W2</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW1" s="13"/>
       <c r="AX1" s="13"/>
@@ -29088,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BM1" s="16"/>
       <c r="BN1" s="16"/>
@@ -29110,19 +29156,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>2</v>
@@ -29141,7 +29187,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="23"/>
       <c r="N2" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O2" s="24" t="str">
         <f aca="false">F2</f>
@@ -29411,29 +29457,29 @@
         <v>7</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="23"/>
       <c r="N3" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="30" t="str">
         <f aca="false">IF(ISBLANK(F3)," ",IF(F3="-","-",IF(LEFT(RIGHT($E3,($P$1+1)),1)="0",IF(LEFT(RIGHT(F3,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F3,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -29697,28 +29743,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -29986,7 +30032,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>7</v>
@@ -29995,29 +30041,29 @@
         <v>7</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="23"/>
       <c r="N5" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" s="30" t="str">
         <f aca="false">IF(ISBLANK(F5)," ",IF(F5="-","-",IF(LEFT(RIGHT($E5,($P$1+1)),1)="0",IF(LEFT(RIGHT(F5,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F5,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -30278,38 +30324,38 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
       <c r="N6" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" s="30" t="str">
         <f aca="false">IF(ISBLANK(F6)," ",IF(F6="-","-",IF(LEFT(RIGHT($E6,($P$1+1)),1)="0",IF(LEFT(RIGHT(F6,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F6,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -30574,19 +30620,19 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -30858,26 +30904,26 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" s="30" t="str">
         <f aca="false">IF(ISBLANK(F8)," ",IF(F8="-","-",IF(LEFT(RIGHT($E8,($P$1+1)),1)="0",IF(LEFT(RIGHT(F8,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F8,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -31142,26 +31188,26 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="O9" s="30" t="str">
         <f aca="false">IF(ISBLANK(F9)," ",IF(F9="-","-",IF(LEFT(RIGHT($E9,($P$1+1)),1)="0",IF(LEFT(RIGHT(F9,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F9,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -31426,19 +31472,19 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -31719,7 +31765,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
       <c r="N11" s="29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="O11" s="30" t="str">
         <f aca="false">IF(ISBLANK(F11)," ",IF(F11="-","-",IF(LEFT(RIGHT($E11,($P$1+1)),1)="0",IF(LEFT(RIGHT(F11,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F11,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -31993,7 +32039,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="O12" s="30" t="str">
         <f aca="false">IF(ISBLANK(F12)," ",IF(F12="-","-",IF(LEFT(RIGHT($E12,($P$1+1)),1)="0",IF(LEFT(RIGHT(F12,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F12,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -32267,7 +32313,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" s="30" t="str">
         <f aca="false">IF(ISBLANK(F13)," ",IF(F13="-","-",IF(LEFT(RIGHT($E13,($P$1+1)),1)="0",IF(LEFT(RIGHT(F13,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F13,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -32541,7 +32587,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" s="30" t="str">
         <f aca="false">IF(ISBLANK(F14)," ",IF(F14="-","-",IF(LEFT(RIGHT($E14,($P$1+1)),1)="0",IF(LEFT(RIGHT(F14,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F14,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -32815,7 +32861,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="O15" s="30" t="str">
         <f aca="false">IF(ISBLANK(F15)," ",IF(F15="-","-",IF(LEFT(RIGHT($E15,($P$1+1)),1)="0",IF(LEFT(RIGHT(F15,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F15,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -33363,7 +33409,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="23"/>
       <c r="N17" s="29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="O17" s="30" t="str">
         <f aca="false">IF(ISBLANK(F17)," ",IF(F17="-","-",IF(LEFT(RIGHT($E17,($P$1+1)),1)="0",IF(LEFT(RIGHT(F17,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F17,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -33637,7 +33683,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
       <c r="N18" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" s="30" t="str">
         <f aca="false">IF(ISBLANK(F18)," ",IF(F18="-","-",IF(LEFT(RIGHT($E18,($P$1+1)),1)="0",IF(LEFT(RIGHT(F18,($P$1+1)),1)="0",$C$3,$C$4),IF(LEFT(RIGHT(F18,($P$1+1)),1)="0",$C$5,$C$6))))</f>
@@ -33910,7 +33956,7 @@
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -33979,7 +34025,7 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="35"/>
       <c r="B20" s="37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -33988,7 +34034,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
@@ -33999,10 +34045,10 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
@@ -34065,14 +34111,14 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
@@ -34085,7 +34131,7 @@
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -34152,10 +34198,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -34172,7 +34218,7 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="T22" s="41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
@@ -34236,13 +34282,13 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35"/>
       <c r="B23" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -34260,7 +34306,7 @@
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
       <c r="T23" s="42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
@@ -34323,7 +34369,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
@@ -34339,7 +34385,7 @@
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
       <c r="T24" s="38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
@@ -34402,28 +34448,28 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="35"/>
@@ -34434,7 +34480,7 @@
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
       <c r="T25" s="37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
@@ -34506,13 +34552,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H26" s="45" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J26" s="46" t="s">
         <v>7</v>
@@ -34528,7 +34574,7 @@
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
       <c r="T26" s="47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
@@ -34594,25 +34640,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -34623,7 +34669,7 @@
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
       <c r="T27" s="38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
@@ -34635,7 +34681,7 @@
       <c r="AC27" s="35"/>
       <c r="AE27" s="35"/>
       <c r="AF27" s="47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG27" s="35"/>
       <c r="AH27" s="35"/>
@@ -34686,7 +34732,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>7</v>
@@ -34695,19 +34741,19 @@
         <v>7</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
@@ -34718,7 +34764,7 @@
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -34732,7 +34778,7 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
       <c r="AF28" s="48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
@@ -34785,25 +34831,25 @@
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="D29" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K29" s="45" t="s">
         <v>7</v>
@@ -34817,7 +34863,7 @@
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
       <c r="T29" s="41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
@@ -34833,7 +34879,7 @@
       <c r="AF29" s="35"/>
       <c r="AG29" s="35"/>
       <c r="AH29" s="49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="35"/>
@@ -35064,11 +35110,11 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">F2</f>
@@ -35336,7 +35382,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="23" t="str">
